--- a/Ejercicio.xlsx
+++ b/Ejercicio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isaias\Desktop\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D3187D-EE82-4FF2-9642-91D667BD4F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEB9744-06D4-46CC-BE22-BF13DA7D7C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{7E5C5930-481D-428E-8829-EBFE14B9F0C2}"/>
   </bookViews>
@@ -168,7 +168,257 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="29">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -522,7 +772,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J9" sqref="J9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,21 +1058,44 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="MAYOR DE EDA">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="MAYOR DE EDA">
       <formula>NOT(ISERROR(SEARCH("MAYOR DE EDA",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="MENOR DE EDAD">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="MENOR DE EDAD">
       <formula>NOT(ISERROR(SEARCH("MENOR DE EDAD",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFF7128"/>
         <color rgb="FFFFEF9C"/>
       </colorScale>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="APROBADO">
+      <formula>NOT(ISERROR(SEARCH("APROBADO",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J6">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="APROBADO">
+      <formula>NOT(ISERROR(SEARCH("APROBADO",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="REPROBADO">
+      <formula>NOT(ISERROR(SEARCH("REPROBADO",I4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:J6">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="REPROBADO">
+      <formula>NOT(ISERROR(SEARCH("REPROBADO",I4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PANZAZO">
+      <formula>NOT(ISERROR(SEARCH("PANZAZO",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
